--- a/config_3.30/fish_3d_yutu_random_4.xlsx
+++ b/config_3.30/fish_3d_yutu_random_4.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="108">
   <si>
     <t>change_time_max</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -219,14 +219,222 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,</t>
+  </si>
+  <si>
+    <t>max_create_num|最大的创建次数（默认为9999）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>101,102,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>68,69,70,71,72,73,74,82,83,84,85,86,87,88,67,81,75,76,77,78,79,80,89,90,91,92,93,94,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>26,27,64,65,66</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>126,127,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>188,188,188,189,189,189,189,189,189,189,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>83,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>188,188,188,189,189,189,189,189,189,189,</t>
+  </si>
+  <si>
+    <t>84,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>|描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一网打尽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运营活动鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>话费鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红包鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红包鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常规活动鱼2.16</t>
+  </si>
+  <si>
+    <t>常规活动鱼boss2.16</t>
+  </si>
+  <si>
+    <t>常规活动鱼2.23</t>
+  </si>
+  <si>
+    <t>常规活动鱼boss2.23</t>
+  </si>
+  <si>
+    <t>170,171,172,173,174,175,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>176,177,178,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>179,180,181,182,183,184</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>start_time|开始限制时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>end_time|结束时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30,40,30</t>
+  </si>
+  <si>
+    <t>create_weight1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_weight2</t>
+  </si>
+  <si>
+    <t>中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20,60,5</t>
+  </si>
+  <si>
+    <t>create_weight3</t>
+  </si>
+  <si>
+    <t>大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,10,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_weight4</t>
+  </si>
+  <si>
+    <t>巨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>170,171,172,173,174,175,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>170,171,172,173,174,175,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>179,180,181,182,183,184</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>179,180,181,182,183,184</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>179,180,181,182,183,184</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>185,186,187</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常规活动鱼</t>
+  </si>
+  <si>
+    <t>161,162,163,164,165,166,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常规活动鱼boss</t>
+  </si>
+  <si>
+    <t>167,168,169,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>34,36,34,36,34,36,149,150,190,191,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄金鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>37,38,37,38,37,38,151,152,192,193,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>39,40,41,39,40,41,39,40,41,153,154,194,195,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>18,19,20,21,22,23,24,25,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,</t>
-  </si>
-  <si>
-    <t>max_create_num|最大的创建次数（默认为9999）</t>
+    <t>活动鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>35,42,43,44,45,46,47,48,48,46,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8,9,10,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大鱼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -234,231 +442,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>101,102,</t>
+    <t>小boss</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>57,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>35,42,43,44,45,46,47,48,48,46,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>68,69,70,71,72,73,74,82,83,84,85,86,87,88,67,81,75,76,77,78,79,80,89,90,91,92,93,94,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3,4,5,6,7,8,9,10,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>26,27,64,65,66</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>126,127,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>34,36,149,150</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>37,38,151,152,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>39,40,41,153,154,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>188,188,188,189,189,189,189,189,189,189,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>83,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>188,188,188,189,189,189,189,189,189,189,</t>
-  </si>
-  <si>
-    <t>84,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>|描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小boss</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄金鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄金鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄金鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>活动鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>群鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一网打尽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>运营活动鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>话费鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>红包鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>红包鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>常规活动鱼2.16</t>
-  </si>
-  <si>
-    <t>常规活动鱼boss2.16</t>
-  </si>
-  <si>
-    <t>常规活动鱼2.23</t>
-  </si>
-  <si>
-    <t>常规活动鱼boss2.23</t>
-  </si>
-  <si>
-    <t>170,171,172,173,174,175,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>176,177,178,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>179,180,181,182,183,184</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>start_time|开始限制时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>end_time|结束时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30,40,30</t>
-  </si>
-  <si>
-    <t>create_weight1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>create_weight2</t>
-  </si>
-  <si>
-    <t>中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20,60,5</t>
-  </si>
-  <si>
-    <t>create_weight3</t>
-  </si>
-  <si>
-    <t>大</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10,10,5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>create_weight4</t>
-  </si>
-  <si>
-    <t>巨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>170,171,172,173,174,175,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>170,171,172,173,174,175,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>179,180,181,182,183,184</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>179,180,181,182,183,184</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>179,180,181,182,183,184</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>185,186,187</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>常规活动鱼</t>
-  </si>
-  <si>
-    <t>161,162,163,164,165,166,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>常规活动鱼boss</t>
-  </si>
-  <si>
-    <t>167,168,169,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1201,8 +1189,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1221,7 +1209,7 @@
         <v>33</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C1" t="s">
         <v>34</v>
@@ -1239,13 +1227,13 @@
         <v>45</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I1" s="16" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="J1" s="16" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -1253,10 +1241,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>59</v>
+        <v>94</v>
       </c>
       <c r="D2" s="11">
         <v>180</v>
@@ -1265,7 +1253,7 @@
         <v>220</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I2" s="16"/>
       <c r="J2" s="16"/>
@@ -1275,10 +1263,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="D3" s="11">
         <v>180</v>
@@ -1287,7 +1275,7 @@
         <v>220</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I3" s="16"/>
       <c r="J3" s="16"/>
@@ -1297,10 +1285,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="D4" s="11">
         <v>200</v>
@@ -1309,7 +1297,7 @@
         <v>250</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I4" s="16"/>
       <c r="J4" s="16"/>
@@ -1319,10 +1307,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="C5" t="s">
-        <v>47</v>
+        <v>59</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>98</v>
       </c>
       <c r="D5" s="11">
         <v>300</v>
@@ -1339,10 +1327,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="C6" t="s">
-        <v>53</v>
+        <v>99</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>100</v>
       </c>
       <c r="D6" s="11">
         <v>400</v>
@@ -1359,10 +1347,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>70</v>
+        <v>101</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="D7" s="11">
         <v>20</v>
@@ -1371,7 +1359,7 @@
         <v>30</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G7" s="10"/>
     </row>
@@ -1380,10 +1368,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>71</v>
+        <v>103</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D8" s="11">
         <v>280</v>
@@ -1392,7 +1380,7 @@
         <v>300</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G8" s="10"/>
     </row>
@@ -1401,10 +1389,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>50</v>
+        <v>105</v>
       </c>
       <c r="D9" s="11">
         <v>40</v>
@@ -1413,7 +1401,7 @@
         <v>80</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I9" s="16"/>
       <c r="J9" s="16"/>
@@ -1423,10 +1411,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>73</v>
+        <v>104</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>50</v>
+        <v>105</v>
       </c>
       <c r="D10" s="11">
         <v>50</v>
@@ -1435,7 +1423,7 @@
         <v>100</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I10" s="16"/>
       <c r="J10" s="16"/>
@@ -1445,10 +1433,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="C11" t="s">
-        <v>52</v>
+        <v>106</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>107</v>
       </c>
       <c r="D11" s="11">
         <v>1500</v>
@@ -1457,7 +1445,7 @@
         <v>1800</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H11" s="11">
         <v>1</v>
@@ -1468,10 +1456,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>75</v>
+        <v>106</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>52</v>
+        <v>107</v>
       </c>
       <c r="D12" s="11">
         <v>3000</v>
@@ -1480,7 +1468,7 @@
         <v>3300</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H12" s="11">
         <v>1</v>
@@ -1491,10 +1479,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>76</v>
+        <v>106</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>52</v>
+        <v>107</v>
       </c>
       <c r="D13" s="11">
         <v>4500</v>
@@ -1503,7 +1491,7 @@
         <v>4800</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I13" s="16"/>
       <c r="J13" s="16"/>
@@ -1513,10 +1501,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D14" s="11">
         <v>500</v>
@@ -1525,7 +1513,7 @@
         <v>700</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I14" s="16"/>
       <c r="J14" s="16"/>
@@ -1535,10 +1523,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D15" s="11">
         <v>2000</v>
@@ -1547,7 +1535,7 @@
         <v>4000</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I15" s="16"/>
       <c r="J15" s="16"/>
@@ -1557,10 +1545,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D16" s="11">
         <v>3000</v>
@@ -1569,7 +1557,7 @@
         <v>3000</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="I16" s="16"/>
       <c r="J16" s="16"/>
@@ -1579,10 +1567,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="D17" s="11">
         <v>3000</v>
@@ -1591,7 +1579,7 @@
         <v>3000</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="I17" s="16"/>
       <c r="J17" s="16"/>
@@ -1601,10 +1589,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="D18" s="24">
         <v>200</v>
@@ -1613,7 +1601,7 @@
         <v>300</v>
       </c>
       <c r="F18" s="24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G18" s="24"/>
       <c r="H18" s="24"/>
@@ -1629,10 +1617,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="D19" s="24">
         <v>200</v>
@@ -1641,7 +1629,7 @@
         <v>300</v>
       </c>
       <c r="F19" s="24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G19" s="24"/>
       <c r="H19" s="24"/>
@@ -1657,10 +1645,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="D20" s="24">
         <v>200</v>
@@ -1669,7 +1657,7 @@
         <v>300</v>
       </c>
       <c r="F20" s="24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G20" s="24"/>
       <c r="H20" s="24"/>
@@ -1685,10 +1673,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="D21" s="24">
         <v>200</v>
@@ -1697,7 +1685,7 @@
         <v>300</v>
       </c>
       <c r="F21" s="24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G21" s="24"/>
       <c r="H21" s="24"/>
@@ -1713,10 +1701,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="D22" s="24">
         <v>3000</v>
@@ -1725,7 +1713,7 @@
         <v>3000</v>
       </c>
       <c r="F22" s="24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G22" s="24"/>
       <c r="H22" s="24"/>
@@ -1741,10 +1729,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="22" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="D23" s="22">
         <v>200</v>
@@ -1753,7 +1741,7 @@
         <v>300</v>
       </c>
       <c r="F23" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I23" s="21">
         <v>1613433600</v>
@@ -1767,10 +1755,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="22" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="D24" s="22">
         <v>200</v>
@@ -1779,7 +1767,7 @@
         <v>300</v>
       </c>
       <c r="F24" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I24" s="21">
         <v>1613433600</v>
@@ -1793,10 +1781,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="D25" s="22">
         <v>200</v>
@@ -1805,7 +1793,7 @@
         <v>300</v>
       </c>
       <c r="F25" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I25" s="21">
         <v>1613433600</v>
@@ -1819,10 +1807,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="22" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="D26" s="22">
         <v>200</v>
@@ -1831,7 +1819,7 @@
         <v>300</v>
       </c>
       <c r="F26" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I26" s="21">
         <v>1613433600</v>
@@ -1845,10 +1833,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="22" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="D27" s="22">
         <v>3000</v>
@@ -1857,7 +1845,7 @@
         <v>3000</v>
       </c>
       <c r="F27" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I27" s="21">
         <v>1613433600</v>
@@ -1871,10 +1859,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="D28" s="22">
         <v>200</v>
@@ -1883,7 +1871,7 @@
         <v>300</v>
       </c>
       <c r="F28" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I28" s="21">
         <v>1614038400</v>
@@ -1897,10 +1885,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="D29" s="22">
         <v>200</v>
@@ -1909,7 +1897,7 @@
         <v>300</v>
       </c>
       <c r="F29" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I29" s="21">
         <v>1614038400</v>
@@ -1923,10 +1911,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="22" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="D30" s="22">
         <v>200</v>
@@ -1935,7 +1923,7 @@
         <v>300</v>
       </c>
       <c r="F30" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I30" s="21">
         <v>1614038400</v>
@@ -1949,10 +1937,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="22" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="D31" s="22">
         <v>200</v>
@@ -1961,7 +1949,7 @@
         <v>300</v>
       </c>
       <c r="F31" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I31" s="21">
         <v>1614038400</v>
@@ -1975,10 +1963,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="22" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="D32" s="22">
         <v>3000</v>
@@ -1987,7 +1975,7 @@
         <v>3000</v>
       </c>
       <c r="F32" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I32" s="21">
         <v>1614038400</v>
@@ -2752,13 +2740,13 @@
       </c>
       <c r="B3" s="17"/>
       <c r="C3" s="15" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2767,13 +2755,13 @@
       </c>
       <c r="B4" s="17"/>
       <c r="C4" s="15" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -2782,13 +2770,13 @@
       </c>
       <c r="B5" s="18"/>
       <c r="C5" s="15" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -2797,13 +2785,13 @@
       </c>
       <c r="B6" s="19"/>
       <c r="C6" s="15" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
